--- a/LaserLEDController/Project Outputs for LaserLEDController/LaserLEDController.xlsx
+++ b/LaserLEDController/Project Outputs for LaserLEDController/LaserLEDController.xlsx
@@ -3,8 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FxSlava\Documents\Laser-LED-STM-Board-Project\LaserLEDController\Project Outputs for LaserLEDController\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13215" windowHeight="8415"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13605" windowHeight="9780"/>
   </bookViews>
   <sheets>
     <sheet name="LaserLEDController" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="64">
   <si>
     <t>Comment</t>
   </si>
@@ -39,24 +44,57 @@
     <t>Quantity</t>
   </si>
   <si>
+    <t>Value</t>
+  </si>
+  <si>
     <t>ChipCap</t>
   </si>
   <si>
     <t>Capacitor</t>
   </si>
   <si>
-    <t>C1, C2, C3, C4, C5, C6, C7, C10</t>
+    <t>C1, C2, C3, C4, C5, C10</t>
   </si>
   <si>
     <t>CAP0603</t>
   </si>
   <si>
-    <t>C8, C9</t>
+    <t>100nF</t>
+  </si>
+  <si>
+    <t>C6, C7</t>
+  </si>
+  <si>
+    <t>22pF</t>
+  </si>
+  <si>
+    <t>C8</t>
   </si>
   <si>
     <t>CAP0805</t>
   </si>
   <si>
+    <t>10uF</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>4.7uF</t>
+  </si>
+  <si>
+    <t>LED 0603</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>LED1, LED2</t>
+  </si>
+  <si>
+    <t>PLCC-2</t>
+  </si>
+  <si>
     <t>Header 7</t>
   </si>
   <si>
@@ -75,10 +113,37 @@
     <t>Chip resistor</t>
   </si>
   <si>
-    <t>R1, R2</t>
+    <t>R1</t>
   </si>
   <si>
     <t>RES0603</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>R2, R6, R7</t>
+  </si>
+  <si>
+    <t>10K</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>470</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>330</t>
   </si>
   <si>
     <t>STM32F042K6T6</t>
@@ -500,20 +565,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -532,53 +601,62 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="3">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="F3" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>14</v>
@@ -587,150 +665,335 @@
         <v>15</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F4" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="2" t="s">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="3">
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="2" t="s">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="B7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="2" t="s">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="D9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="3">
+        <v>3</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="2" t="s">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="D11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="2" t="s">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="2" t="s">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="3">
-        <v>1</v>
+      <c r="E13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
